--- a/Data/Config_status.xlsx
+++ b/Data/Config_status.xlsx
@@ -406,9 +406,6 @@
     <t>sowmya.jagadish@primefocus.com;vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com</t>
   </si>
   <si>
-    <t>Automation Report - For Status verification</t>
-  </si>
-  <si>
     <t>latamqa</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>C:\Users\vamsikrishna.g\Documents\UiPath\Pre_Qc\Data\Reportfor_PreQc_status.xlsx</t>
+  </si>
+  <si>
+    <t>Automation Report - For Pre-Qc verification</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
   <dimension ref="A1:Z969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -953,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21"/>
     </row>
@@ -973,7 +973,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="21"/>
     </row>
@@ -991,7 +991,7 @@
         <v>115</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C8" s="21"/>
     </row>

--- a/Data/Config_status.xlsx
+++ b/Data/Config_status.xlsx
@@ -397,28 +397,28 @@
     <t>Email_body</t>
   </si>
   <si>
+    <t>sowmya.jagadish@primefocus.com;vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com</t>
+  </si>
+  <si>
+    <t>latamqa</t>
+  </si>
+  <si>
+    <t>Tracker@4321</t>
+  </si>
+  <si>
+    <t>121265-100</t>
+  </si>
+  <si>
+    <t>C:\common\Reportfor_PreQc_status.xlsx</t>
+  </si>
+  <si>
     <t>Hi All,
-Please find the attached report,
+Please find the attached report of Pre-Qc verification.
 Thanks &amp; Regards,
 QA Team</t>
   </si>
   <si>
-    <t>sowmya.jagadish@primefocus.com;vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com</t>
-  </si>
-  <si>
-    <t>latamqa</t>
-  </si>
-  <si>
-    <t>Tracker@4321</t>
-  </si>
-  <si>
-    <t>121265-100</t>
-  </si>
-  <si>
-    <t>C:\Users\vamsikrishna.g\Documents\UiPath\Pre_Qc\Data\Reportfor_PreQc_status.xlsx</t>
-  </si>
-  <si>
-    <t>Automation Report - For Pre-Qc verification</t>
+    <t>Automation Report - For INTL- Pre-Qc verification</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
   <dimension ref="A1:Z969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -942,7 +942,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -953,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="21"/>
     </row>
@@ -973,7 +973,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="21"/>
     </row>
@@ -982,7 +982,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C7" s="21"/>
     </row>
@@ -1018,7 +1018,7 @@
         <v>120</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="21"/>
     </row>

--- a/Data/Config_status.xlsx
+++ b/Data/Config_status.xlsx
@@ -373,9 +373,6 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>https://turnertrackerqa.clearhub.tv/BC/PRODUCT/Modules/SignIn.aspx</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -397,28 +394,31 @@
     <t>Email_body</t>
   </si>
   <si>
-    <t>sowmya.jagadish@primefocus.com;vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com</t>
-  </si>
-  <si>
-    <t>latamqa</t>
-  </si>
-  <si>
-    <t>Tracker@4321</t>
-  </si>
-  <si>
-    <t>121265-100</t>
-  </si>
-  <si>
-    <t>C:\common\Reportfor_PreQc_status.xlsx</t>
+    <t>Automation Report - For INTL- Pre-Qc verification</t>
+  </si>
+  <si>
+    <t>C:\common\INTL_ReportforProd_Pre-Qc_status.xlsx</t>
   </si>
   <si>
     <t>Hi All,
-Please find the attached report of Pre-Qc verification.
+Please find the attached report of INTL prod Pre-Qc verification.
 Thanks &amp; Regards,
 QA Team</t>
   </si>
   <si>
-    <t>Automation Report - For INTL- Pre-Qc verification</t>
+    <t>https://turnertrackerqa.clearhub.tv/BC/PRODUCT/Modules/SignIn.aspx</t>
+  </si>
+  <si>
+    <t>latamqa</t>
+  </si>
+  <si>
+    <t>Tracker@4321</t>
+  </si>
+  <si>
+    <t>121265-111</t>
+  </si>
+  <si>
+    <t>vamsikrishna.g@primefocus.com;aditya.kulshreshtha@primefocus.com</t>
   </si>
 </sst>
 </file>
@@ -436,12 +436,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -881,7 +883,7 @@
   <dimension ref="A1:Z969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -931,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -942,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -953,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -964,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="21"/>
     </row>
@@ -973,52 +975,52 @@
         <v>48</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C11" s="21"/>
     </row>
